--- a/Sample/Service Design Team Backlog.xlsx
+++ b/Sample/Service Design Team Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenkay/Documents/GitHub/SK-Office-Tools/PlannerToGantt/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B1FE1-FDC0-2F4C-A977-E615EDDE6157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39860AA-161C-0F4D-93A0-FB52451C40B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,11 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -3074,7 +3073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>291</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>296</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>301</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>307</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>310</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>315</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>317</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>320</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>322</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>331</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>334</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>338</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>345</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>347</v>
       </c>
@@ -5830,7 +5829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>359</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>364</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>366</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>368</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>370</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>372</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>374</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>379</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>381</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>386</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>388</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>392</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>398</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>400</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>402</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>404</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>408</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -7050,21 +7049,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q101" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Done"/>
-        <filter val="For Review"/>
-        <filter val="In Progress"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="In progress"/>
-        <filter val="Not started"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:Q59 A62:Q101 A60:H60 J60:Q60 A61:H61 J61:Q61" numberStoredAsText="1"/>
